--- a/output/1Y_P103_KFSDIV.xlsx
+++ b/output/1Y_P103_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>11.1511</v>
       </c>
       <c r="C2" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D2" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>896.7725</v>
+        <v>894.9747</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.5294</v>
       </c>
       <c r="C3" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D3" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E3" s="1">
-        <v>896.7725</v>
+        <v>894.9747</v>
       </c>
       <c r="F3" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="H3" s="1">
-        <v>10339.249</v>
+        <v>10297.8476</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10339.249</v>
+        <v>10297.8476</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0339</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>10.9136</v>
       </c>
       <c r="C4" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D4" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E4" s="1">
-        <v>1764.1128</v>
+        <v>1760.5882</v>
       </c>
       <c r="F4" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="H4" s="1">
-        <v>19252.8216</v>
+        <v>19175.9748</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19252.8216</v>
+        <v>19175.9748</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.3371</v>
+        <v>11.3598</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>403.5476</v>
+        <v>402.7386</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9596.4524</v>
+        <v>-9597.261399999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0534</v>
+        <v>-0.0553</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.2587</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E5" s="1">
-        <v>2680.4008</v>
+        <v>2675.0411</v>
       </c>
       <c r="F5" s="1">
-        <v>892.1846</v>
+        <v>890.3893</v>
       </c>
       <c r="H5" s="1">
-        <v>30177.5599</v>
+        <v>30057.2974</v>
       </c>
       <c r="I5" s="1">
-        <v>403.5476</v>
+        <v>402.7386</v>
       </c>
       <c r="J5" s="1">
-        <v>30581.1075</v>
+        <v>30460.036</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.1924</v>
+        <v>11.2148</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10044.8386</v>
+        <v>-10044.7487</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0454</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.6434</v>
       </c>
       <c r="C6" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D6" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E6" s="1">
-        <v>3572.5853</v>
+        <v>3565.4304</v>
       </c>
       <c r="F6" s="1">
-        <v>862.7067</v>
+        <v>860.976</v>
       </c>
       <c r="H6" s="1">
-        <v>41597.0401</v>
+        <v>41430.6583</v>
       </c>
       <c r="I6" s="1">
-        <v>358.709</v>
+        <v>357.9899</v>
       </c>
       <c r="J6" s="1">
-        <v>41955.7491</v>
+        <v>41788.6482</v>
       </c>
       <c r="K6" s="1">
-        <v>40044.8386</v>
+        <v>40044.7487</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2089</v>
+        <v>11.2314</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10044.8386</v>
+        <v>-10044.7487</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0339</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>11.3141</v>
       </c>
       <c r="C7" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D7" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E7" s="1">
-        <v>4435.292</v>
+        <v>4426.4064</v>
       </c>
       <c r="F7" s="1">
-        <v>887.816</v>
+        <v>886.0303</v>
       </c>
       <c r="H7" s="1">
-        <v>50181.3371</v>
+        <v>49980.7684</v>
       </c>
       <c r="I7" s="1">
-        <v>313.8704</v>
+        <v>313.2412</v>
       </c>
       <c r="J7" s="1">
-        <v>50495.2075</v>
+        <v>50294.0095</v>
       </c>
       <c r="K7" s="1">
-        <v>50089.6773</v>
+        <v>50089.4975</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2934</v>
+        <v>11.3161</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1286.1307</v>
+        <v>1283.555</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8758.707899999999</v>
+        <v>-8761.193799999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0281</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.003</v>
       </c>
       <c r="C8" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D8" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E8" s="1">
-        <v>5323.108</v>
+        <v>5312.4368</v>
       </c>
       <c r="F8" s="1">
-        <v>932.3997000000001</v>
+        <v>930.4836</v>
       </c>
       <c r="H8" s="1">
-        <v>58570.1569</v>
+        <v>58335.8683</v>
       </c>
       <c r="I8" s="1">
-        <v>1555.1625</v>
+        <v>1552.0474</v>
       </c>
       <c r="J8" s="1">
-        <v>60125.3193</v>
+        <v>59887.9157</v>
       </c>
       <c r="K8" s="1">
-        <v>60134.5159</v>
+        <v>60134.2462</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2969</v>
+        <v>11.3195</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10259.1937</v>
+        <v>-10258.6746</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0061</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.1102</v>
       </c>
       <c r="C9" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D9" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E9" s="1">
-        <v>6255.5076</v>
+        <v>6242.9204</v>
       </c>
       <c r="F9" s="1">
-        <v>923.3948</v>
+        <v>921.5068</v>
       </c>
       <c r="H9" s="1">
-        <v>69499.94100000001</v>
+        <v>69221.501</v>
       </c>
       <c r="I9" s="1">
-        <v>1295.9687</v>
+        <v>1293.3728</v>
       </c>
       <c r="J9" s="1">
-        <v>70795.90979999999</v>
+        <v>70514.8738</v>
       </c>
       <c r="K9" s="1">
-        <v>70393.7096</v>
+        <v>70392.92080000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.2531</v>
+        <v>11.2756</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10259.1937</v>
+        <v>-10258.6746</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>10.623</v>
       </c>
       <c r="C10" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D10" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E10" s="1">
-        <v>7178.9025</v>
+        <v>7164.4272</v>
       </c>
       <c r="F10" s="1">
-        <v>965.753</v>
+        <v>963.7716</v>
       </c>
       <c r="H10" s="1">
-        <v>76261.4811</v>
+        <v>75955.1076</v>
       </c>
       <c r="I10" s="1">
-        <v>1036.775</v>
+        <v>1034.6982</v>
       </c>
       <c r="J10" s="1">
-        <v>77298.2561</v>
+        <v>76989.80590000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80652.9034</v>
+        <v>80651.5953</v>
       </c>
       <c r="L10" s="1">
-        <v>11.2347</v>
+        <v>11.2572</v>
       </c>
       <c r="M10" s="1">
         <v>0.1</v>
       </c>
       <c r="N10" s="1">
-        <v>562.9957000000001</v>
+        <v>561.8628</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9696.1981</v>
+        <v>-9696.8117</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0433</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>9.977</v>
       </c>
       <c r="C11" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E11" s="1">
-        <v>8144.6555</v>
+        <v>8128.1988</v>
       </c>
       <c r="F11" s="1">
-        <v>1047.0942</v>
+        <v>1044.9097</v>
       </c>
       <c r="H11" s="1">
-        <v>81259.22749999999</v>
+        <v>80932.4757</v>
       </c>
       <c r="I11" s="1">
-        <v>1340.5769</v>
+        <v>1337.8865</v>
       </c>
       <c r="J11" s="1">
-        <v>82599.80439999999</v>
+        <v>82270.3622</v>
       </c>
       <c r="K11" s="1">
-        <v>90912.0971</v>
+        <v>90910.2699</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1622</v>
+        <v>11.1846</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10446.859</v>
+        <v>-10445.9622</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0538</v>
+        <v>-0.0543</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.5542</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E12" s="1">
-        <v>9191.7497</v>
+        <v>9173.1085</v>
       </c>
       <c r="F12" s="1">
-        <v>989.8295000000001</v>
+        <v>987.7605</v>
       </c>
       <c r="H12" s="1">
-        <v>97011.5643</v>
+        <v>96621.2693</v>
       </c>
       <c r="I12" s="1">
-        <v>893.718</v>
+        <v>891.9243</v>
       </c>
       <c r="J12" s="1">
-        <v>97905.28230000001</v>
+        <v>97513.1937</v>
       </c>
       <c r="K12" s="1">
-        <v>101358.9561</v>
+        <v>101356.2321</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0272</v>
+        <v>11.0493</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10446.859</v>
+        <v>-10445.9622</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0573</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.7815</v>
       </c>
       <c r="C13" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D13" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E13" s="1">
-        <v>10181.5792</v>
+        <v>10160.869</v>
       </c>
       <c r="F13" s="1">
-        <v>968.9616</v>
+        <v>966.9412</v>
       </c>
       <c r="H13" s="1">
-        <v>109772.6963</v>
+        <v>109329.9343</v>
       </c>
       <c r="I13" s="1">
-        <v>446.859</v>
+        <v>445.9622</v>
       </c>
       <c r="J13" s="1">
-        <v>110219.5552</v>
+        <v>109775.8965</v>
       </c>
       <c r="K13" s="1">
-        <v>111805.8151</v>
+        <v>111802.1942</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9812</v>
+        <v>11.0032</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10446.859</v>
+        <v>-10445.9622</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0214</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.9292</v>
       </c>
       <c r="C14" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D14" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E14" s="1">
-        <v>11150.5408</v>
+        <v>11127.8102</v>
       </c>
       <c r="F14" s="1">
-        <v>-11150.5408</v>
+        <v>-11127.8102</v>
       </c>
       <c r="H14" s="1">
-        <v>121866.4901</v>
+        <v>121374.3638</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121866.4901</v>
+        <v>121374.3638</v>
       </c>
       <c r="K14" s="1">
-        <v>122252.674</v>
+        <v>122248.1564</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9638</v>
+        <v>10.9858</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121866.4901</v>
+        <v>121374.3638</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0137</v>
+        <v>0.0133</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>11.1511</v>
       </c>
       <c r="C2" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D2" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>896.7725</v>
+        <v>894.9747</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.5294</v>
       </c>
       <c r="C3" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D3" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E3" s="1">
-        <v>896.7725</v>
+        <v>894.9747</v>
       </c>
       <c r="F3" s="1">
-        <v>837.9231</v>
+        <v>843.2035</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10339.249</v>
+        <v>10297.8476</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10339.249</v>
+        <v>10297.8476</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9660.834699999999</v>
+        <v>-9741.108399999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0339</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>10.9136</v>
       </c>
       <c r="C4" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D4" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E4" s="1">
-        <v>1734.6956</v>
+        <v>1738.1782</v>
       </c>
       <c r="F4" s="1">
-        <v>947.3652</v>
+        <v>938.1273</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18931.7744</v>
+        <v>18931.8895</v>
       </c>
       <c r="I4" s="1">
-        <v>339.1653</v>
+        <v>258.8916</v>
       </c>
       <c r="J4" s="1">
-        <v>19270.9397</v>
+        <v>19190.7811</v>
       </c>
       <c r="K4" s="1">
-        <v>19660.8347</v>
+        <v>19741.1084</v>
       </c>
       <c r="L4" s="1">
-        <v>11.3339</v>
+        <v>11.3574</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>403.5476</v>
+        <v>402.7386</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9935.6176</v>
+        <v>-9856.153</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0525</v>
+        <v>-0.0545</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.2587</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E5" s="1">
-        <v>2682.0609</v>
+        <v>2676.3056</v>
       </c>
       <c r="F5" s="1">
-        <v>870.7787</v>
+        <v>883.6168</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30196.2507</v>
+        <v>30071.5045</v>
       </c>
       <c r="I5" s="1">
-        <v>403.5476</v>
+        <v>402.7386</v>
       </c>
       <c r="J5" s="1">
-        <v>30599.7983</v>
+        <v>30474.2432</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.1854</v>
+        <v>11.2095</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9803.8364</v>
+        <v>-9968.346600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0454</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.6434</v>
       </c>
       <c r="C6" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D6" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E6" s="1">
-        <v>3552.8396</v>
+        <v>3559.9224</v>
       </c>
       <c r="F6" s="1">
-        <v>741.4387</v>
+        <v>742.9666</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41367.1327</v>
+        <v>41366.6542</v>
       </c>
       <c r="I6" s="1">
-        <v>599.7112</v>
+        <v>434.392</v>
       </c>
       <c r="J6" s="1">
-        <v>41966.8439</v>
+        <v>41801.0463</v>
       </c>
       <c r="K6" s="1">
-        <v>39803.8364</v>
+        <v>39968.3466</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2034</v>
+        <v>11.2273</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8632.8673</v>
+        <v>-8667.968000000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0337</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>11.3141</v>
       </c>
       <c r="C7" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D7" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E7" s="1">
-        <v>4294.2783</v>
+        <v>4302.889</v>
       </c>
       <c r="F7" s="1">
-        <v>1008.839</v>
+        <v>1010.8426</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48585.8942</v>
+        <v>48586.0707</v>
       </c>
       <c r="I7" s="1">
-        <v>1966.8439</v>
+        <v>1766.424</v>
       </c>
       <c r="J7" s="1">
-        <v>50552.7381</v>
+        <v>50352.4947</v>
       </c>
       <c r="K7" s="1">
-        <v>48436.7037</v>
+        <v>48636.3146</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2794</v>
+        <v>11.3032</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1279.0223</v>
+        <v>1281.5721</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10135.0836</v>
+        <v>-10178.1484</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0272</v>
+        <v>-0.028</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.003</v>
       </c>
       <c r="C8" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D8" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E8" s="1">
-        <v>5303.1173</v>
+        <v>5313.7316</v>
       </c>
       <c r="F8" s="1">
-        <v>1058.784</v>
+        <v>1051.0812</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58350.2002</v>
+        <v>58350.0863</v>
       </c>
       <c r="I8" s="1">
-        <v>1831.7603</v>
+        <v>1588.2756</v>
       </c>
       <c r="J8" s="1">
-        <v>60181.9605</v>
+        <v>59938.3619</v>
       </c>
       <c r="K8" s="1">
-        <v>59850.8096</v>
+        <v>60096.0351</v>
       </c>
       <c r="L8" s="1">
-        <v>11.286</v>
+        <v>11.3096</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11649.7998</v>
+        <v>-11588.2756</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0061</v>
+        <v>-0.0069</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.1102</v>
       </c>
       <c r="C9" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D9" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E9" s="1">
-        <v>6361.9013</v>
+        <v>6364.8128</v>
       </c>
       <c r="F9" s="1">
-        <v>838.6891000000001</v>
+        <v>850.1944</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70681.9958</v>
+        <v>70573.0442</v>
       </c>
       <c r="I9" s="1">
-        <v>181.9605</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70863.95630000001</v>
+        <v>70573.0442</v>
       </c>
       <c r="K9" s="1">
-        <v>71500.6094</v>
+        <v>71684.3107</v>
       </c>
       <c r="L9" s="1">
-        <v>11.2389</v>
+        <v>11.2626</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9318.088</v>
+        <v>-9464.7894</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0097</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>10.623</v>
       </c>
       <c r="C10" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D10" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E10" s="1">
-        <v>7200.5904</v>
+        <v>7215.0072</v>
       </c>
       <c r="F10" s="1">
-        <v>1022.6746</v>
+        <v>989.7514</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>76491.8723</v>
+        <v>76491.342</v>
       </c>
       <c r="I10" s="1">
-        <v>863.8724999999999</v>
+        <v>535.2106</v>
       </c>
       <c r="J10" s="1">
-        <v>77355.7448</v>
+        <v>77026.5526</v>
       </c>
       <c r="K10" s="1">
-        <v>80818.6974</v>
+        <v>81149.1001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.2239</v>
+        <v>11.2473</v>
       </c>
       <c r="M10" s="1">
         <v>0.1</v>
       </c>
       <c r="N10" s="1">
-        <v>572.5711</v>
+        <v>572.8332</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10291.3014</v>
+        <v>-9962.377399999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0434</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>9.977</v>
       </c>
       <c r="C11" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E11" s="1">
-        <v>8223.265100000001</v>
+        <v>8204.758599999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1059.6944</v>
+        <v>1057.6006</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>82043.5156</v>
+        <v>81694.7813</v>
       </c>
       <c r="I11" s="1">
-        <v>572.5711</v>
+        <v>572.8332</v>
       </c>
       <c r="J11" s="1">
-        <v>82616.0867</v>
+        <v>82267.61440000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91682.5699</v>
+        <v>91684.3107</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1492</v>
+        <v>11.1745</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10572.5711</v>
+        <v>-10572.8332</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0543</v>
+        <v>-0.0547</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.5542</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E12" s="1">
-        <v>9282.959500000001</v>
+        <v>9262.359200000001</v>
       </c>
       <c r="F12" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97974.21090000001</v>
+        <v>97561.35550000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97974.21090000001</v>
+        <v>97561.35550000001</v>
       </c>
       <c r="K12" s="1">
-        <v>102255.141</v>
+        <v>102257.1438</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0154</v>
+        <v>11.0401</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0579</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.7815</v>
       </c>
       <c r="C13" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D13" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E13" s="1">
-        <v>10230.4496</v>
+        <v>10207.9499</v>
       </c>
       <c r="F13" s="1">
-        <v>899.7271</v>
+        <v>925.6602</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>110299.5921</v>
+        <v>109836.5201</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>110299.5921</v>
+        <v>109836.5201</v>
       </c>
       <c r="K13" s="1">
-        <v>112255.141</v>
+        <v>112257.1438</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9726</v>
+        <v>10.997</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9700.4079</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0215</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.9292</v>
       </c>
       <c r="C14" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D14" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E14" s="1">
-        <v>11130.1767</v>
+        <v>11133.6101</v>
       </c>
       <c r="F14" s="1">
-        <v>-11130.1767</v>
+        <v>-11133.6101</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121643.9271</v>
+        <v>121437.6257</v>
       </c>
       <c r="I14" s="1">
-        <v>299.5921</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121943.5192</v>
+        <v>121437.6257</v>
       </c>
       <c r="K14" s="1">
-        <v>121955.5489</v>
+        <v>122257.1438</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9572</v>
+        <v>10.9809</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121643.9271</v>
+        <v>121437.6257</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0137</v>
+        <v>0.0134</v>
       </c>
     </row>
   </sheetData>
@@ -2137,6 +2137,774 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11.1511</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11.1288</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11.1735</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>894.9747</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11.5294</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11.5063</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11.5525</v>
+      </c>
+      <c r="E3" s="1">
+        <v>894.9747</v>
+      </c>
+      <c r="F3" s="1">
+        <v>847.5489</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20050</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10297.8476</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10297.8476</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>11.1735</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-9791.3092</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.0298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10.9136</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10.8918</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10.9355</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1742.5237</v>
+      </c>
+      <c r="F4" s="1">
+        <v>933.5367</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30150.25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18979.2192</v>
+      </c>
+      <c r="I4" s="1">
+        <v>208.6908</v>
+      </c>
+      <c r="J4" s="1">
+        <v>19187.91</v>
+      </c>
+      <c r="K4" s="1">
+        <v>19791.3092</v>
+      </c>
+      <c r="L4" s="1">
+        <v>11.3578</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>402.7386</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-9805.9522</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-0.0547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11.2587</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11.2362</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11.2813</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2676.0604</v>
+      </c>
+      <c r="F5" s="1">
+        <v>910.6505</v>
+      </c>
+      <c r="G5" s="1">
+        <v>40301.0012</v>
+      </c>
+      <c r="H5" s="1">
+        <v>30068.7497</v>
+      </c>
+      <c r="I5" s="1">
+        <v>402.7386</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30471.4883</v>
+      </c>
+      <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>11.2105</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-10273.3219</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11.6434</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11.6201</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11.6667</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3586.7109</v>
+      </c>
+      <c r="F6" s="1">
+        <v>759.4226</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50502.5063</v>
+      </c>
+      <c r="H6" s="1">
+        <v>41677.9396</v>
+      </c>
+      <c r="I6" s="1">
+        <v>129.4167</v>
+      </c>
+      <c r="J6" s="1">
+        <v>41807.3563</v>
+      </c>
+      <c r="K6" s="1">
+        <v>40273.3219</v>
+      </c>
+      <c r="L6" s="1">
+        <v>11.2285</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-8859.9558</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11.3141</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11.2915</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11.3368</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4346.1335</v>
+      </c>
+      <c r="F7" s="1">
+        <v>994.0601</v>
+      </c>
+      <c r="G7" s="1">
+        <v>60755.0188</v>
+      </c>
+      <c r="H7" s="1">
+        <v>49074.3668</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1269.4609</v>
+      </c>
+      <c r="J7" s="1">
+        <v>50343.8277</v>
+      </c>
+      <c r="K7" s="1">
+        <v>49133.2777</v>
+      </c>
+      <c r="L7" s="1">
+        <v>11.3051</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1291.2159</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-9978.245000000001</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-0.0282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11.003</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10.981</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11.0251</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5340.1937</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1024.1373</v>
+      </c>
+      <c r="G8" s="1">
+        <v>71058.7939</v>
+      </c>
+      <c r="H8" s="1">
+        <v>58640.6667</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1291.2159</v>
+      </c>
+      <c r="J8" s="1">
+        <v>59931.8826</v>
+      </c>
+      <c r="K8" s="1">
+        <v>60402.7386</v>
+      </c>
+      <c r="L8" s="1">
+        <v>11.311</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-11291.2159</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-0.0068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11.1102</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11.088</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11.1325</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6364.3309</v>
+      </c>
+      <c r="F9" s="1">
+        <v>898.2708</v>
+      </c>
+      <c r="G9" s="1">
+        <v>81414.0879</v>
+      </c>
+      <c r="H9" s="1">
+        <v>70567.7015</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>70567.7015</v>
+      </c>
+      <c r="K9" s="1">
+        <v>71693.9546</v>
+      </c>
+      <c r="L9" s="1">
+        <v>11.265</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.0091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10.623</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10.6017</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10.6443</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7262.6018</v>
+      </c>
+      <c r="F10" s="1">
+        <v>939.47</v>
+      </c>
+      <c r="G10" s="1">
+        <v>91821.1583</v>
+      </c>
+      <c r="H10" s="1">
+        <v>76995.9252</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>76995.9252</v>
+      </c>
+      <c r="K10" s="1">
+        <v>81693.9546</v>
+      </c>
+      <c r="L10" s="1">
+        <v>11.2486</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>572.7898</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-9427.2102</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-0.0443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.977</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.957000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.997</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8202.0717</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1057.5963</v>
+      </c>
+      <c r="G11" s="1">
+        <v>102280.2641</v>
+      </c>
+      <c r="H11" s="1">
+        <v>81668.0282</v>
+      </c>
+      <c r="I11" s="1">
+        <v>572.7898</v>
+      </c>
+      <c r="J11" s="1">
+        <v>82240.818</v>
+      </c>
+      <c r="K11" s="1">
+        <v>91693.9546</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11.1794</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-10572.7898</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-0.0547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10.5542</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10.5331</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10.5754</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9259.668</v>
+      </c>
+      <c r="F12" s="1">
+        <v>945.5907</v>
+      </c>
+      <c r="G12" s="1">
+        <v>112791.6654</v>
+      </c>
+      <c r="H12" s="1">
+        <v>97533.0088</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>97533.0088</v>
+      </c>
+      <c r="K12" s="1">
+        <v>102266.7443</v>
+      </c>
+      <c r="L12" s="1">
+        <v>11.0443</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.0574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10.7815</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10.7599</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10.8031</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10205.2587</v>
+      </c>
+      <c r="F13" s="1">
+        <v>925.6602</v>
+      </c>
+      <c r="G13" s="1">
+        <v>123355.6237</v>
+      </c>
+      <c r="H13" s="1">
+        <v>109807.563</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>109807.563</v>
+      </c>
+      <c r="K13" s="1">
+        <v>112266.7443</v>
+      </c>
+      <c r="L13" s="1">
+        <v>11.0009</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.0212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10.9292</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10.9073</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10.9511</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11130.9189</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-11130.9189</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>121408.272</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>121408.272</v>
+      </c>
+      <c r="K14" s="1">
+        <v>122266.7443</v>
+      </c>
+      <c r="L14" s="1">
+        <v>10.9844</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>121408.272</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.0134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -2224,16 +2992,16 @@
         <v>11.1511</v>
       </c>
       <c r="C2" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D2" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>896.7725</v>
+        <v>894.9747</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +3039,34 @@
         <v>11.5294</v>
       </c>
       <c r="C3" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D3" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E3" s="1">
-        <v>896.7725</v>
+        <v>894.9747</v>
       </c>
       <c r="F3" s="1">
-        <v>842.2599</v>
+        <v>851.8944</v>
       </c>
       <c r="G3" s="1">
-        <v>20050</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10339.249</v>
+        <v>10297.8476</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10339.249</v>
+        <v>10297.8476</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9710.8352</v>
+        <v>-9841.509899999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0339</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +3092,49 @@
         <v>10.9136</v>
       </c>
       <c r="C4" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D4" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E4" s="1">
-        <v>1739.0324</v>
+        <v>1746.8691</v>
       </c>
       <c r="F4" s="1">
-        <v>942.7838</v>
+        <v>928.9461</v>
       </c>
       <c r="G4" s="1">
-        <v>30150.25</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18979.1039</v>
+        <v>19026.5489</v>
       </c>
       <c r="I4" s="1">
-        <v>289.1648</v>
+        <v>158.4901</v>
       </c>
       <c r="J4" s="1">
-        <v>19268.2687</v>
+        <v>19185.039</v>
       </c>
       <c r="K4" s="1">
-        <v>19710.8352</v>
+        <v>19841.5099</v>
       </c>
       <c r="L4" s="1">
-        <v>11.3344</v>
+        <v>11.3583</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>403.5476</v>
+        <v>402.7386</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9885.617200000001</v>
+        <v>-9755.751399999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0527</v>
+        <v>-0.0548</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +3145,34 @@
         <v>11.2587</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E5" s="1">
-        <v>2681.8161</v>
+        <v>2675.8152</v>
       </c>
       <c r="F5" s="1">
-        <v>897.7587</v>
+        <v>922.1223</v>
       </c>
       <c r="G5" s="1">
-        <v>40301.0012</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30193.4952</v>
+        <v>30065.9948</v>
       </c>
       <c r="I5" s="1">
-        <v>403.5476</v>
+        <v>402.7386</v>
       </c>
       <c r="J5" s="1">
-        <v>30597.0429</v>
+        <v>30468.7334</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.1864</v>
+        <v>11.2115</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10107.5958</v>
+        <v>-10402.7386</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0454</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +3198,34 @@
         <v>11.6434</v>
       </c>
       <c r="C6" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D6" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E6" s="1">
-        <v>3579.5748</v>
+        <v>3597.9375</v>
       </c>
       <c r="F6" s="1">
-        <v>757.8615</v>
+        <v>791.8741</v>
       </c>
       <c r="G6" s="1">
-        <v>50502.5063</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41678.4216</v>
+        <v>41808.3939</v>
       </c>
       <c r="I6" s="1">
-        <v>295.9518</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41974.3735</v>
+        <v>41808.3939</v>
       </c>
       <c r="K6" s="1">
-        <v>40107.5958</v>
+        <v>40402.7386</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2046</v>
+        <v>11.2294</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8824.0846</v>
+        <v>-9238.557500000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0339</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +3251,49 @@
         <v>11.3141</v>
       </c>
       <c r="C7" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D7" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E7" s="1">
-        <v>4337.4363</v>
+        <v>4389.8116</v>
       </c>
       <c r="F7" s="1">
-        <v>1013.9443</v>
+        <v>949.2487</v>
       </c>
       <c r="G7" s="1">
-        <v>60755.0188</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49074.1885</v>
+        <v>49567.558</v>
       </c>
       <c r="I7" s="1">
-        <v>1471.8672</v>
+        <v>761.4425</v>
       </c>
       <c r="J7" s="1">
-        <v>50546.0557</v>
+        <v>50329.0005</v>
       </c>
       <c r="K7" s="1">
-        <v>48931.6804</v>
+        <v>49641.2961</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2812</v>
+        <v>11.3083</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1288.6469</v>
+        <v>1295.2575</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10183.2203</v>
+        <v>-9466.184999999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0275</v>
+        <v>-0.0286</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +3304,34 @@
         <v>11.003</v>
       </c>
       <c r="C8" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D8" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E8" s="1">
-        <v>5351.3806</v>
+        <v>5339.0603</v>
       </c>
       <c r="F8" s="1">
-        <v>1025.9608</v>
+        <v>1024.5039</v>
       </c>
       <c r="G8" s="1">
-        <v>71058.7939</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>58881.2412</v>
+        <v>58628.2213</v>
       </c>
       <c r="I8" s="1">
-        <v>1288.6469</v>
+        <v>1295.2575</v>
       </c>
       <c r="J8" s="1">
-        <v>60169.8881</v>
+        <v>59923.4788</v>
       </c>
       <c r="K8" s="1">
-        <v>60403.5476</v>
+        <v>60402.7386</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2875</v>
+        <v>11.3134</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11288.6469</v>
+        <v>-11295.2575</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0062</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +3357,34 @@
         <v>11.1102</v>
       </c>
       <c r="C9" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D9" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E9" s="1">
-        <v>6377.3415</v>
+        <v>6363.5642</v>
       </c>
       <c r="F9" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G9" s="1">
-        <v>81414.0879</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70853.53909999999</v>
+        <v>70559.19960000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70853.53909999999</v>
+        <v>70559.19960000001</v>
       </c>
       <c r="K9" s="1">
-        <v>71692.1946</v>
+        <v>71697.9961</v>
       </c>
       <c r="L9" s="1">
-        <v>11.2417</v>
+        <v>11.267</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0097</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +3410,49 @@
         <v>10.623</v>
       </c>
       <c r="C10" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D10" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E10" s="1">
-        <v>7277.4072</v>
+        <v>7261.835</v>
       </c>
       <c r="F10" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G10" s="1">
-        <v>91821.1583</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>77307.8964</v>
+        <v>76987.7962</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77307.8964</v>
+        <v>76987.7962</v>
       </c>
       <c r="K10" s="1">
-        <v>81692.1946</v>
+        <v>81697.9961</v>
       </c>
       <c r="L10" s="1">
-        <v>11.2255</v>
+        <v>11.2503</v>
       </c>
       <c r="M10" s="1">
         <v>0.1</v>
       </c>
       <c r="N10" s="1">
-        <v>573.9607</v>
+        <v>572.7208000000001</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9426.0393</v>
+        <v>-9427.279200000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0439</v>
+        <v>-0.0443</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +3463,34 @@
         <v>9.977</v>
       </c>
       <c r="C11" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E11" s="1">
-        <v>8218.7608</v>
+        <v>8201.305</v>
       </c>
       <c r="F11" s="1">
-        <v>1059.8337</v>
+        <v>1057.5894</v>
       </c>
       <c r="G11" s="1">
-        <v>102280.2641</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>81998.5769</v>
+        <v>81660.3934</v>
       </c>
       <c r="I11" s="1">
-        <v>573.9607</v>
+        <v>572.7208000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>82572.5376</v>
+        <v>82233.1142</v>
       </c>
       <c r="K11" s="1">
-        <v>91692.1946</v>
+        <v>91697.9961</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1565</v>
+        <v>11.1809</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10573.9607</v>
+        <v>-10572.7208</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0542</v>
+        <v>-0.0547</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +3516,34 @@
         <v>10.5542</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E12" s="1">
-        <v>9278.594499999999</v>
+        <v>9258.8943</v>
       </c>
       <c r="F12" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G12" s="1">
-        <v>112791.6654</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>97928.1424</v>
+        <v>97524.8596</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97928.1424</v>
+        <v>97524.8596</v>
       </c>
       <c r="K12" s="1">
-        <v>102266.1553</v>
+        <v>102270.7169</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0217</v>
+        <v>11.0457</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0579</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +3569,34 @@
         <v>10.7815</v>
       </c>
       <c r="C13" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D13" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E13" s="1">
-        <v>10226.0846</v>
+        <v>10204.485</v>
       </c>
       <c r="F13" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G13" s="1">
-        <v>123355.6237</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>110252.5314</v>
+        <v>109799.2384</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>110252.5314</v>
+        <v>109799.2384</v>
       </c>
       <c r="K13" s="1">
-        <v>112266.1553</v>
+        <v>112270.7169</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9784</v>
+        <v>11.0021</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0215</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +3622,34 @@
         <v>10.9292</v>
       </c>
       <c r="C14" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D14" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E14" s="1">
-        <v>11153.5993</v>
+        <v>11130.1452</v>
       </c>
       <c r="F14" s="1">
-        <v>-11153.5993</v>
+        <v>-11130.1452</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121899.918</v>
+        <v>121399.8332</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121899.918</v>
+        <v>121399.8332</v>
       </c>
       <c r="K14" s="1">
-        <v>122266.1553</v>
+        <v>122270.7169</v>
       </c>
       <c r="L14" s="1">
-        <v>10.962</v>
+        <v>10.9855</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,778 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121899.918</v>
+        <v>121399.8332</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0137</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>11.1511</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11.1511</v>
-      </c>
-      <c r="D2" s="1">
-        <v>11.1511</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>896.7725</v>
-      </c>
-      <c r="G2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>11.5294</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11.5294</v>
-      </c>
-      <c r="D3" s="1">
-        <v>11.5295</v>
-      </c>
-      <c r="E3" s="1">
-        <v>896.7725</v>
-      </c>
-      <c r="F3" s="1">
-        <v>846.5966</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20100</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10339.249</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10339.249</v>
-      </c>
-      <c r="K3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>11.1511</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-9760.8356</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0.0339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10.9136</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10.9136</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10.9136</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1743.3691</v>
-      </c>
-      <c r="F4" s="1">
-        <v>938.2023</v>
-      </c>
-      <c r="G4" s="1">
-        <v>30301</v>
-      </c>
-      <c r="H4" s="1">
-        <v>19026.4333</v>
-      </c>
-      <c r="I4" s="1">
-        <v>239.1644</v>
-      </c>
-      <c r="J4" s="1">
-        <v>19265.5977</v>
-      </c>
-      <c r="K4" s="1">
-        <v>19760.8356</v>
-      </c>
-      <c r="L4" s="1">
-        <v>11.3349</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="1">
-        <v>403.5476</v>
-      </c>
-      <c r="O4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-9835.6168</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>-0.0528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>11.2587</v>
-      </c>
-      <c r="C5" s="1">
-        <v>11.2586</v>
-      </c>
-      <c r="D5" s="1">
-        <v>11.2587</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2681.5714</v>
-      </c>
-      <c r="F5" s="1">
-        <v>924.0452</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40604.01</v>
-      </c>
-      <c r="H5" s="1">
-        <v>30190.7398</v>
-      </c>
-      <c r="I5" s="1">
-        <v>403.5476</v>
-      </c>
-      <c r="J5" s="1">
-        <v>30594.2874</v>
-      </c>
-      <c r="K5" s="1">
-        <v>30000</v>
-      </c>
-      <c r="L5" s="1">
-        <v>11.1875</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P5" s="1">
-        <v>-10403.5476</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0.0454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>11.6434</v>
-      </c>
-      <c r="C6" s="1">
-        <v>11.6434</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11.6434</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3605.6166</v>
-      </c>
-      <c r="F6" s="1">
-        <v>775.4104</v>
-      </c>
-      <c r="G6" s="1">
-        <v>51010.0501</v>
-      </c>
-      <c r="H6" s="1">
-        <v>41981.6363</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>41981.6363</v>
-      </c>
-      <c r="K6" s="1">
-        <v>40403.5476</v>
-      </c>
-      <c r="L6" s="1">
-        <v>11.2057</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="1">
-        <v>-9028.4138</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0.0342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>11.3141</v>
-      </c>
-      <c r="C7" s="1">
-        <v>11.3141</v>
-      </c>
-      <c r="D7" s="1">
-        <v>11.3141</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4381.027</v>
-      </c>
-      <c r="F7" s="1">
-        <v>969.7268</v>
-      </c>
-      <c r="G7" s="1">
-        <v>61520.1506</v>
-      </c>
-      <c r="H7" s="1">
-        <v>49567.3779</v>
-      </c>
-      <c r="I7" s="1">
-        <v>971.5862</v>
-      </c>
-      <c r="J7" s="1">
-        <v>50538.9641</v>
-      </c>
-      <c r="K7" s="1">
-        <v>49431.9614</v>
-      </c>
-      <c r="L7" s="1">
-        <v>11.2832</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1298.022</v>
-      </c>
-      <c r="O7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P7" s="1">
-        <v>-9673.564200000001</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>-0.0278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>11.003</v>
-      </c>
-      <c r="C8" s="1">
-        <v>11.003</v>
-      </c>
-      <c r="D8" s="1">
-        <v>11.003</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5350.7538</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1026.8129</v>
-      </c>
-      <c r="G8" s="1">
-        <v>72135.3521</v>
-      </c>
-      <c r="H8" s="1">
-        <v>58874.3446</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1298.022</v>
-      </c>
-      <c r="J8" s="1">
-        <v>60172.3666</v>
-      </c>
-      <c r="K8" s="1">
-        <v>60403.5476</v>
-      </c>
-      <c r="L8" s="1">
-        <v>11.2888</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="1">
-        <v>-11298.022</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>-0.0061</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>11.1102</v>
-      </c>
-      <c r="C9" s="1">
-        <v>11.1102</v>
-      </c>
-      <c r="D9" s="1">
-        <v>11.1103</v>
-      </c>
-      <c r="E9" s="1">
-        <v>6377.5667</v>
-      </c>
-      <c r="F9" s="1">
-        <v>900.0657</v>
-      </c>
-      <c r="G9" s="1">
-        <v>82856.7056</v>
-      </c>
-      <c r="H9" s="1">
-        <v>70856.0417</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>70856.0417</v>
-      </c>
-      <c r="K9" s="1">
-        <v>71701.5696</v>
-      </c>
-      <c r="L9" s="1">
-        <v>11.2428</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0.0097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10.623</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10.623</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10.623</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7277.6324</v>
-      </c>
-      <c r="F10" s="1">
-        <v>941.3537</v>
-      </c>
-      <c r="G10" s="1">
-        <v>93685.2727</v>
-      </c>
-      <c r="H10" s="1">
-        <v>77310.2892</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>77310.2892</v>
-      </c>
-      <c r="K10" s="1">
-        <v>81701.5696</v>
-      </c>
-      <c r="L10" s="1">
-        <v>11.2264</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>573.981</v>
-      </c>
-      <c r="O10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="1">
-        <v>-9426.019</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>-0.0439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9.977</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9.977</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9.977</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8218.9861</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1059.8357</v>
-      </c>
-      <c r="G11" s="1">
-        <v>104622.1254</v>
-      </c>
-      <c r="H11" s="1">
-        <v>82000.8242</v>
-      </c>
-      <c r="I11" s="1">
-        <v>573.981</v>
-      </c>
-      <c r="J11" s="1">
-        <v>82574.8052</v>
-      </c>
-      <c r="K11" s="1">
-        <v>91701.5696</v>
-      </c>
-      <c r="L11" s="1">
-        <v>11.1573</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-10573.981</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>-0.0542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10.5542</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10.5542</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10.5542</v>
-      </c>
-      <c r="E12" s="1">
-        <v>9278.8218</v>
-      </c>
-      <c r="F12" s="1">
-        <v>947.4901</v>
-      </c>
-      <c r="G12" s="1">
-        <v>115668.3467</v>
-      </c>
-      <c r="H12" s="1">
-        <v>97930.5411</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>97930.5411</v>
-      </c>
-      <c r="K12" s="1">
-        <v>102275.5506</v>
-      </c>
-      <c r="L12" s="1">
-        <v>11.0225</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P12" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0.0579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10.7815</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10.7815</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10.7815</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10226.3119</v>
-      </c>
-      <c r="F13" s="1">
-        <v>927.5146999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>126825.0301</v>
-      </c>
-      <c r="H13" s="1">
-        <v>110254.9818</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>110254.9818</v>
-      </c>
-      <c r="K13" s="1">
-        <v>112275.5506</v>
-      </c>
-      <c r="L13" s="1">
-        <v>10.9791</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0.0215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10.9292</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10.9292</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10.9292</v>
-      </c>
-      <c r="E14" s="1">
-        <v>11153.8266</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-11153.8266</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>121902.402</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>121902.402</v>
-      </c>
-      <c r="K14" s="1">
-        <v>122275.5506</v>
-      </c>
-      <c r="L14" s="1">
-        <v>10.9627</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>121902.402</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0.0137</v>
+        <v>0.0134</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>11.1511</v>
       </c>
       <c r="C2" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D2" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>896.7725</v>
+        <v>894.9747</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.5294</v>
       </c>
       <c r="C3" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D3" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E3" s="1">
-        <v>896.7725</v>
+        <v>894.9747</v>
       </c>
       <c r="F3" s="1">
-        <v>850.9333</v>
+        <v>856.2397999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10339.249</v>
+        <v>10297.8476</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10339.249</v>
+        <v>10297.8476</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9810.8361</v>
+        <v>-9891.7107</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0339</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>10.9136</v>
       </c>
       <c r="C4" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D4" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E4" s="1">
-        <v>1747.7059</v>
+        <v>1751.2146</v>
       </c>
       <c r="F4" s="1">
-        <v>933.6208</v>
+        <v>924.3555</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19073.7627</v>
+        <v>19073.8787</v>
       </c>
       <c r="I4" s="1">
-        <v>189.1639</v>
+        <v>108.2893</v>
       </c>
       <c r="J4" s="1">
-        <v>19262.9267</v>
+        <v>19182.168</v>
       </c>
       <c r="K4" s="1">
-        <v>19810.8361</v>
+        <v>19891.7107</v>
       </c>
       <c r="L4" s="1">
-        <v>11.3353</v>
+        <v>11.3588</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>403.5476</v>
+        <v>402.7386</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9785.6163</v>
+        <v>-9705.5507</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0529</v>
+        <v>-0.055</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.2587</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E5" s="1">
-        <v>2681.3267</v>
+        <v>2675.57</v>
       </c>
       <c r="F5" s="1">
-        <v>924.0452</v>
+        <v>922.1223</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30187.9844</v>
+        <v>30063.2399</v>
       </c>
       <c r="I5" s="1">
-        <v>403.5476</v>
+        <v>402.7386</v>
       </c>
       <c r="J5" s="1">
-        <v>30591.532</v>
+        <v>30465.9786</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.1885</v>
+        <v>11.2126</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10403.5476</v>
+        <v>-10402.7386</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0454</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>11.6434</v>
       </c>
       <c r="C6" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D6" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E6" s="1">
-        <v>3605.3719</v>
+        <v>3597.6924</v>
       </c>
       <c r="F6" s="1">
-        <v>819.6818</v>
+        <v>836.2341</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41978.7867</v>
+        <v>41805.5449</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41978.7867</v>
+        <v>41805.5449</v>
       </c>
       <c r="K6" s="1">
-        <v>40403.5476</v>
+        <v>40402.7386</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2065</v>
+        <v>11.2302</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9543.882600000001</v>
+        <v>-9756.0928</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0342</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>11.3141</v>
       </c>
       <c r="C7" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D7" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E7" s="1">
-        <v>4425.0536</v>
+        <v>4433.9265</v>
       </c>
       <c r="F7" s="1">
-        <v>924.167</v>
+        <v>903.5978</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50065.4991</v>
+        <v>50065.681</v>
       </c>
       <c r="I7" s="1">
-        <v>456.1174</v>
+        <v>243.9072</v>
       </c>
       <c r="J7" s="1">
-        <v>50521.6165</v>
+        <v>50309.5882</v>
       </c>
       <c r="K7" s="1">
-        <v>49947.4302</v>
+        <v>50158.8314</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2874</v>
+        <v>11.3125</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1297.9339</v>
+        <v>1295.1692</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9158.1836</v>
+        <v>-8948.7379</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.028</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.003</v>
       </c>
       <c r="C8" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D8" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E8" s="1">
-        <v>5349.2206</v>
+        <v>5337.5243</v>
       </c>
       <c r="F8" s="1">
-        <v>1026.8049</v>
+        <v>1024.4959</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>58857.474</v>
+        <v>58611.3539</v>
       </c>
       <c r="I8" s="1">
-        <v>1297.9339</v>
+        <v>1295.1692</v>
       </c>
       <c r="J8" s="1">
-        <v>60155.4079</v>
+        <v>59906.5232</v>
       </c>
       <c r="K8" s="1">
-        <v>60403.5476</v>
+        <v>60402.7386</v>
       </c>
       <c r="L8" s="1">
-        <v>11.292</v>
+        <v>11.3166</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11297.9339</v>
+        <v>-11295.1692</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0061</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>11.1102</v>
       </c>
       <c r="C9" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D9" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E9" s="1">
-        <v>6376.0254</v>
+        <v>6362.0201</v>
       </c>
       <c r="F9" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70838.9178</v>
+        <v>70542.0791</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70838.9178</v>
+        <v>70542.0791</v>
       </c>
       <c r="K9" s="1">
-        <v>71701.48149999999</v>
+        <v>71697.90790000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.2455</v>
+        <v>11.2697</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0097</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>10.623</v>
       </c>
       <c r="C10" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D10" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E10" s="1">
-        <v>7276.0911</v>
+        <v>7260.2909</v>
       </c>
       <c r="F10" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>77293.91620000001</v>
+        <v>76971.4265</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77293.91620000001</v>
+        <v>76971.4265</v>
       </c>
       <c r="K10" s="1">
-        <v>81701.48149999999</v>
+        <v>81697.90790000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.2288</v>
+        <v>11.2527</v>
       </c>
       <c r="M10" s="1">
         <v>0.1</v>
       </c>
       <c r="N10" s="1">
-        <v>573.8423</v>
+        <v>572.5818</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9426.1577</v>
+        <v>-9427.4182</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0439</v>
+        <v>-0.0443</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>9.977</v>
       </c>
       <c r="C11" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E11" s="1">
-        <v>8217.444799999999</v>
+        <v>8199.760899999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1059.8218</v>
+        <v>1057.5755</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>81985.4469</v>
+        <v>81645.0193</v>
       </c>
       <c r="I11" s="1">
-        <v>573.8423</v>
+        <v>572.5818</v>
       </c>
       <c r="J11" s="1">
-        <v>82559.28909999999</v>
+        <v>82217.6011</v>
       </c>
       <c r="K11" s="1">
-        <v>91701.48149999999</v>
+        <v>91697.90790000001</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1594</v>
+        <v>11.183</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10573.8423</v>
+        <v>-10572.5818</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0542</v>
+        <v>-0.0547</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.5542</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E12" s="1">
-        <v>9277.266600000001</v>
+        <v>9257.3364</v>
       </c>
       <c r="F12" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>97914.1274</v>
+        <v>97508.4495</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97914.1274</v>
+        <v>97508.4495</v>
       </c>
       <c r="K12" s="1">
-        <v>102275.3238</v>
+        <v>102270.4897</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0243</v>
+        <v>11.0475</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0579</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.7815</v>
       </c>
       <c r="C13" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D13" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E13" s="1">
-        <v>10224.7567</v>
+        <v>10202.9271</v>
       </c>
       <c r="F13" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>110238.2146</v>
+        <v>109782.4749</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>110238.2146</v>
+        <v>109782.4749</v>
       </c>
       <c r="K13" s="1">
-        <v>112275.3238</v>
+        <v>112270.4897</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9807</v>
+        <v>11.0038</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0215</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.9292</v>
       </c>
       <c r="C14" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D14" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E14" s="1">
-        <v>11152.2715</v>
+        <v>11128.5873</v>
       </c>
       <c r="F14" s="1">
-        <v>-11152.2715</v>
+        <v>-11128.5873</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121885.4051</v>
+        <v>121382.8401</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121885.4051</v>
+        <v>121382.8401</v>
       </c>
       <c r="K14" s="1">
-        <v>122275.3238</v>
+        <v>122270.4897</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9642</v>
+        <v>10.9871</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121885.4051</v>
+        <v>121382.8401</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0137</v>
+        <v>0.0134</v>
       </c>
     </row>
   </sheetData>
@@ -4450,8 +4450,8 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.9638</v>
+        <v>10.9858</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9572</v>
+        <v>10.9809</v>
       </c>
       <c r="E3" s="1">
-        <v>10.962</v>
+        <v>10.9844</v>
       </c>
       <c r="F3" s="1">
-        <v>10.9627</v>
+        <v>10.9855</v>
       </c>
       <c r="G3" s="1">
-        <v>10.9642</v>
+        <v>10.9871</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0113</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0305</v>
+        <v>0.0179</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0323</v>
+        <v>0.0194</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0316</v>
+        <v>0.019</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0316</v>
+        <v>0.0188</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0312</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.132</v>
       </c>
       <c r="C5" s="3">
+        <v>0.1288</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1288</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1291</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1293</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.1294</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.1293</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.1296</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.1298</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.1299</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.2396</v>
       </c>
       <c r="C6" s="4">
-        <v>0.07829999999999999</v>
+        <v>-0.0187</v>
       </c>
       <c r="D6" s="4">
-        <v>0.0924</v>
+        <v>-0.0069</v>
       </c>
       <c r="E6" s="4">
-        <v>0.0873</v>
+        <v>-0.0103</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0872</v>
+        <v>-0.0121</v>
       </c>
       <c r="G6" s="4">
-        <v>0.08400000000000001</v>
+        <v>-0.0153</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0291</v>
+        <v>0.0214</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0303</v>
+        <v>0.0224</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0295</v>
+        <v>0.0218</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0295</v>
+        <v>0.0217</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0292</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2252.674</v>
+        <v>2248.1564</v>
       </c>
       <c r="D8" s="1">
-        <v>2255.141</v>
+        <v>2257.1438</v>
       </c>
       <c r="E8" s="1">
-        <v>2266.1553</v>
+        <v>2266.7443</v>
       </c>
       <c r="F8" s="1">
-        <v>2275.5506</v>
+        <v>2270.7169</v>
       </c>
       <c r="G8" s="1">
-        <v>2275.3238</v>
+        <v>2270.4897</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P103_KFSDIV.xlsx
+++ b/output/1Y_P103_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.1511</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.5294</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.9136</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2587</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.6434</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.3141</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.003</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.1102</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.623</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.977</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5542</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.7815</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.9292</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.1511</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.5294</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.9136</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2587</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.6434</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.3141</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.003</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.1102</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.623</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.977</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5542</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.7815</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.9292</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.1511</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.5294</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.9136</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2587</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.6434</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.3141</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.003</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.1102</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.623</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.977</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5542</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.7815</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.9292</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.1511</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.5294</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.9136</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2587</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.6434</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.3141</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.003</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.1102</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.623</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.977</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5542</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.7815</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.9292</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.1511</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.5294</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.9136</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2587</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.6434</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.3141</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.003</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.1102</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.623</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.977</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5542</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.7815</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.9292</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>3043.3071</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.993</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9978</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9929</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9929</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
